--- a/biology/Zoologie/Bergeronnette_à_longue_queue/Bergeronnette_à_longue_queue.xlsx
+++ b/biology/Zoologie/Bergeronnette_à_longue_queue/Bergeronnette_à_longue_queue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bergeronnette_%C3%A0_longue_queue</t>
+          <t>Bergeronnette_à_longue_queue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Motacilla clara
 La Bergeronnette à longue queue (Motacilla clara) est une espèce d'oiseau africaine de la famille des Motacillidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bergeronnette_%C3%A0_longue_queue</t>
+          <t>Bergeronnette_à_longue_queue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description, et éléments d'écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M. clara mesure un peu moins de 20 centimètres de long à l'âge adulte pour une vingtaine de grammes[1],[2].
-M. clara ressemble assez à Motacilla aguimp. Il existe quand même plusieurs différences : ses zones foncées soient moins prononcées : elle est davantage grisâtre que noire, elle n’est pas de tâche nucale blanche, et sa bande pectorale noire est plus étroite, parfois non reliée à la zone foncée des épaules et du dos[1],[3]. 
-La bergeronnette à longue queue a un répertoire musicale riche et émet des phrases courtes mais régulièrement répétées : ti-tuu-ui-tui-tui , tsrrrrup, tsrrrrup, tsrrrrup…, ou des appels forts et métalliques comme des chirrup ou chizzik[4],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M. clara mesure un peu moins de 20 centimètres de long à l'âge adulte pour une vingtaine de grammes,.
+M. clara ressemble assez à Motacilla aguimp. Il existe quand même plusieurs différences : ses zones foncées soient moins prononcées : elle est davantage grisâtre que noire, elle n’est pas de tâche nucale blanche, et sa bande pectorale noire est plus étroite, parfois non reliée à la zone foncée des épaules et du dos,. 
+La bergeronnette à longue queue a un répertoire musicale riche et émet des phrases courtes mais régulièrement répétées : ti-tuu-ui-tui-tui , tsrrrrup, tsrrrrup, tsrrrrup…, ou des appels forts et métalliques comme des chirrup ou chizzik,.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bergeronnette_%C3%A0_longue_queue</t>
+          <t>Bergeronnette_à_longue_queue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se nourrit surtout de mouches (chironomidés, empidés et simulidés).
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bergeronnette_%C3%A0_longue_queue</t>
+          <t>Bergeronnette_à_longue_queue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit de manière disparate en Afrique subsaharienne[1],[2],[3],[4],[5]. En effet elle est surtout connue entre la Guinée et le Ghana, du Nigéria à l’Angola en passant par la RDC et surtout en Afrique de l’Est, de l’Afrique du Sud à l’Ethiopie. Elle est souvent observée dans des zones de ruissellement et montagneuses. Elle apprécie fortement les zones humides, et les cours d'eau à fort courant[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit de manière disparate en Afrique subsaharienne. En effet elle est surtout connue entre la Guinée et le Ghana, du Nigéria à l’Angola en passant par la RDC et surtout en Afrique de l’Est, de l’Afrique du Sud à l’Ethiopie. Elle est souvent observée dans des zones de ruissellement et montagneuses. Elle apprécie fortement les zones humides, et les cours d'eau à fort courant.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bergeronnette_%C3%A0_longue_queue</t>
+          <t>Bergeronnette_à_longue_queue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Statut de Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est considérée comme de préoccupation mineure en 2021 par l'UICN[6]. Il n'en reste pas moins qu'il n'existe pas énormément d'informations sur la dynamique populationnelle globale de cette espèce.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est considérée comme de préoccupation mineure en 2021 par l'UICN. Il n'en reste pas moins qu'il n'existe pas énormément d'informations sur la dynamique populationnelle globale de cette espèce.
 </t>
         </is>
       </c>
